--- a/res.xlsx
+++ b/res.xlsx
@@ -12,29 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>directions2</t>
-  </si>
-  <si>
-    <t>titolo</t>
-  </si>
-  <si>
-    <t>directions</t>
-  </si>
-  <si>
-    <t>dir3</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>15-Minute Enchiladas</t>
-  </si>
-  <si>
-    <t>1. Preheat oven to 350 degrees F. </t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -100,33 +78,9 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
+</row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
+</row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
